--- a/Main Analysis.xlsx
+++ b/Main Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oksana\Nextcloud\2023\Manuscripts\Jena2\Authrour_revision_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oksana\Nextcloud\2023\Manuscripts\Jena2\MultitrBEF_JenaExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05B226B-D718-4641-BE2B-89C7EB84AF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F42ED34-17D3-46A5-973D-24CD53BA1663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="488">
   <si>
     <t>response</t>
   </si>
@@ -1467,10 +1467,66 @@
   </si>
   <si>
     <t>energy flows (n=41) and standing stocks (n=12) in the trophic network, each used as response variable in models testing for the effects of plant diversity facets, for detailes see also below</t>
+  </si>
+  <si>
+    <t>F-value from sum of squares type I, i.e. when the target diversity facet was fitted first in the model after "Block" but before all other plant diversity facets</t>
+  </si>
+  <si>
+    <t>p-value  from sum of squares type I, i.e. when the target diversity facet was fitted first in the model after "Block" but before all other plant diversity facets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shown are the results of analysis of variance with sequential sum of squares (type I) for each plant diversity facet when it was fitted first in the model before all other diversity facets (i.e., analysis in main text). </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://github.com/oksanabuzh/MultitrBEF_JenaExperiment/blob/main/Main%20Analysis.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Main Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Effects of plant species richness, functional group richness, presence of legumes, grasses, small herbs and tall herbs on energy flows and biomass stocks in trophic network. </t>
+    </r>
   </si>
   <si>
     <r>
       <t xml:space="preserve">For the results when the target diversity facet was fitted last in the model see </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sensitivity Analysis</t>
     </r>
     <r>
       <rPr>
@@ -1479,7 +1535,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Table S4</t>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/oksanabuzh/MultitrBEF_JenaExperiment/blob/main/Sensitivity%20Analysis.xlsx</t>
     </r>
     <r>
       <rPr>
@@ -1488,55 +1554,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Table S3.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Effects of plant species richness, functional group richness, presence of legumes, grasses, small herbs and tall herbs on energy flows and biomass stocks in trophic network. </t>
-    </r>
-  </si>
-  <si>
-    <t>F-value from sum of squares type I, i.e. when the target diversity facet was fitted first in the model after "Block" but before all other plant diversity facets</t>
-  </si>
-  <si>
-    <t>p-value  from sum of squares type I, i.e. when the target diversity facet was fitted first in the model after "Block" but before all other plant diversity facets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shown are the results of analysis of variance with sequential sum of squares (type I) for each plant diversity facet when it was fitted first in the model before all other diversity facets (i.e., analysis in main text). </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1691,7 +1717,37 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -2051,7 +2107,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2072,6 +2128,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2434,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K80"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.26953125" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2452,238 +2514,223 @@
     <col min="8" max="16384" width="26.26953125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>483</v>
-      </c>
+    <row r="1" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="11" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>481</v>
-      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>397</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>485</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>392</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>396</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>477</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
+    <row r="27" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G28" s="9" t="s">
         <v>402</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>403</v>
@@ -2692,7 +2739,7 @@
         <v>404</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>406</v>
@@ -2703,10 +2750,10 @@
     </row>
     <row r="30" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>403</v>
@@ -2715,7 +2762,7 @@
         <v>404</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>406</v>
@@ -2726,10 +2773,10 @@
     </row>
     <row r="31" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>403</v>
@@ -2749,10 +2796,10 @@
     </row>
     <row r="32" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>403</v>
@@ -2761,7 +2808,7 @@
         <v>404</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>406</v>
@@ -2772,10 +2819,10 @@
     </row>
     <row r="33" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>403</v>
@@ -2784,7 +2831,7 @@
         <v>404</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>406</v>
@@ -2795,10 +2842,10 @@
     </row>
     <row r="34" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>403</v>
@@ -2818,10 +2865,10 @@
     </row>
     <row r="35" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>403</v>
@@ -2830,7 +2877,7 @@
         <v>404</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>406</v>
@@ -2841,10 +2888,10 @@
     </row>
     <row r="36" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>403</v>
@@ -2864,19 +2911,19 @@
     </row>
     <row r="37" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>403</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>406</v>
@@ -2887,10 +2934,10 @@
     </row>
     <row r="38" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>403</v>
@@ -2910,10 +2957,10 @@
     </row>
     <row r="39" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>403</v>
@@ -2922,7 +2969,7 @@
         <v>410</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>406</v>
@@ -2933,10 +2980,10 @@
     </row>
     <row r="40" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>403</v>
@@ -2945,7 +2992,7 @@
         <v>410</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>406</v>
@@ -2956,10 +3003,10 @@
     </row>
     <row r="41" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>403</v>
@@ -2968,7 +3015,7 @@
         <v>410</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>406</v>
@@ -2979,10 +3026,10 @@
     </row>
     <row r="42" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>403</v>
@@ -2991,7 +3038,7 @@
         <v>410</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>406</v>
@@ -3002,10 +3049,10 @@
     </row>
     <row r="43" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>403</v>
@@ -3025,10 +3072,10 @@
     </row>
     <row r="44" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>403</v>
@@ -3037,7 +3084,7 @@
         <v>410</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>406</v>
@@ -3048,10 +3095,10 @@
     </row>
     <row r="45" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>403</v>
@@ -3060,7 +3107,7 @@
         <v>410</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>406</v>
@@ -3071,10 +3118,10 @@
     </row>
     <row r="46" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>403</v>
@@ -3083,7 +3130,7 @@
         <v>410</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>406</v>
@@ -3094,10 +3141,10 @@
     </row>
     <row r="47" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>403</v>
@@ -3117,10 +3164,10 @@
     </row>
     <row r="48" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>403</v>
@@ -3140,10 +3187,10 @@
     </row>
     <row r="49" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>403</v>
@@ -3163,10 +3210,10 @@
     </row>
     <row r="50" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>403</v>
@@ -3186,10 +3233,10 @@
     </row>
     <row r="51" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>403</v>
@@ -3209,10 +3256,10 @@
     </row>
     <row r="52" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>403</v>
@@ -3232,16 +3279,16 @@
     </row>
     <row r="53" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>403</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>411</v>
@@ -3255,10 +3302,10 @@
     </row>
     <row r="54" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>403</v>
@@ -3278,10 +3325,10 @@
     </row>
     <row r="55" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>403</v>
@@ -3301,10 +3348,10 @@
     </row>
     <row r="56" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>403</v>
@@ -3324,10 +3371,10 @@
     </row>
     <row r="57" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>403</v>
@@ -3347,19 +3394,19 @@
     </row>
     <row r="58" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>403</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>406</v>
@@ -3370,19 +3417,19 @@
     </row>
     <row r="59" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>403</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>406</v>
@@ -3393,16 +3440,16 @@
     </row>
     <row r="60" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>403</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>412</v>
@@ -3416,10 +3463,10 @@
     </row>
     <row r="61" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>403</v>
@@ -3439,10 +3486,10 @@
     </row>
     <row r="62" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>403</v>
@@ -3462,10 +3509,10 @@
     </row>
     <row r="63" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>403</v>
@@ -3485,16 +3532,16 @@
     </row>
     <row r="64" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>403</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>412</v>
@@ -3508,10 +3555,10 @@
     </row>
     <row r="65" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>403</v>
@@ -3531,10 +3578,10 @@
     </row>
     <row r="66" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>403</v>
@@ -3554,10 +3601,10 @@
     </row>
     <row r="67" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>403</v>
@@ -3577,10 +3624,10 @@
     </row>
     <row r="68" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>403</v>
@@ -3600,56 +3647,56 @@
     </row>
     <row r="69" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
+        <v>406</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>413</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>406</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G70" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>413</v>
@@ -3661,18 +3708,18 @@
         <v>406</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G71" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>413</v>
@@ -3684,7 +3731,7 @@
         <v>406</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G72" s="3">
         <v>3</v>
@@ -3692,10 +3739,10 @@
     </row>
     <row r="73" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>413</v>
@@ -3707,30 +3754,30 @@
         <v>406</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G73" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>413</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>406</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G74" s="3">
         <v>2</v>
@@ -3738,10 +3785,10 @@
     </row>
     <row r="75" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>413</v>
@@ -3753,18 +3800,18 @@
         <v>406</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G75" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>413</v>
@@ -3776,7 +3823,7 @@
         <v>406</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G76" s="3">
         <v>3</v>
@@ -3784,10 +3831,10 @@
     </row>
     <row r="77" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>413</v>
@@ -3799,18 +3846,18 @@
         <v>406</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G77" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>413</v>
@@ -3830,39 +3877,39 @@
     </row>
     <row r="79" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>413</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>406</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G79" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>413</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>406</v>
@@ -3871,6 +3918,29 @@
         <v>419</v>
       </c>
       <c r="G80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G81" s="3">
         <v>1</v>
       </c>
     </row>
